--- a/Notebooks/Unidade 5/regra_associacao_atividade.xlsx
+++ b/Notebooks/Unidade 5/regra_associacao_atividade.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive Unesc\Meu Drive\2023-2\5af - Ciência de Dados\Notebooks\Unidade 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F11294A-8B32-4A7E-841F-485CF9346436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308874B6-5311-4304-8928-FAFDDDC5E722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{15335C00-953F-40B8-AC19-2D49A0C79438}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{15335C00-953F-40B8-AC19-2D49A0C79438}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>Transação 1: Pão, Leite</t>
   </si>
@@ -187,6 +188,21 @@
   </si>
   <si>
     <t>L(C,L)</t>
+  </si>
+  <si>
+    <t>Transação 2: Pão, Cerveja</t>
+  </si>
+  <si>
+    <t>Transação 6: Pão, Leite, Cerveja</t>
+  </si>
+  <si>
+    <t>Transação 5: Café, Cerveja</t>
+  </si>
+  <si>
+    <t>Transação 8: Cerveja</t>
+  </si>
+  <si>
+    <t>Cerveja</t>
   </si>
 </sst>
 </file>
@@ -346,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -359,6 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,8 +403,8 @@
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3436838" cy="584199"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -429,6 +446,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -567,7 +585,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="CaixaDeTexto 1">
@@ -631,8 +649,8 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3029676" cy="574260"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -674,6 +692,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -813,7 +832,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -1171,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973EB3C1-17C9-42E1-A598-EBAC40B362F3}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -1616,4 +1635,137 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2526A342-43CD-4BC6-B1D6-2558F59CA0F4}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>